--- a/4. Efecto Hall/Code/Datos_Temp_n.xlsx
+++ b/4. Efecto Hall/Code/Datos_Temp_n.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\InterHall\Intermedio\4. Efecto Hall\CompleteData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\InterHall\Intermedio\4. Efecto Hall\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC45AA71-7D85-426B-9D67-8F7E0B56A896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEC7668-3A0A-4D3A-9808-DBC6D823191D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>T [°C]</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>V_L</t>
-  </si>
-  <si>
-    <t>I=0</t>
-  </si>
-  <si>
-    <t>I=1.4</t>
   </si>
 </sst>
 </file>
@@ -357,825 +351,837 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>-2</v>
+      </c>
+      <c r="C2">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E2">
+        <v>41</v>
+      </c>
+      <c r="F2">
+        <v>-54.9</v>
+      </c>
+      <c r="G2">
+        <v>1.1819999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="C3">
-        <v>1.1160000000000001</v>
+        <v>1.131</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>-54.9</v>
+        <v>-54.8</v>
       </c>
       <c r="G3">
-        <v>1.1819999999999999</v>
+        <v>1.1919999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>-1.9</v>
       </c>
       <c r="C4">
-        <v>1.131</v>
+        <v>1.137</v>
       </c>
       <c r="E4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>-54.8</v>
+        <v>-54.7</v>
       </c>
       <c r="G4">
-        <v>1.1919999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>-1.9</v>
       </c>
       <c r="C5">
-        <v>1.137</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F5">
-        <v>-54.7</v>
+        <v>-54.6</v>
       </c>
       <c r="G5">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="C6">
-        <v>1.1519999999999999</v>
+        <v>1.173</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6">
-        <v>-54.6</v>
+        <v>-54.5</v>
       </c>
       <c r="G6">
-        <v>1.21</v>
+        <v>1.2190000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>-2</v>
       </c>
       <c r="C7">
-        <v>1.173</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="E7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7">
-        <v>-54.5</v>
+        <v>-54.4</v>
       </c>
       <c r="G7">
-        <v>1.2190000000000001</v>
+        <v>1.2290000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="C8">
-        <v>1.1779999999999999</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="E8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8">
-        <v>-54.4</v>
+        <v>-54.3</v>
       </c>
       <c r="G8">
-        <v>1.2290000000000001</v>
+        <v>1.236</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>-2.1</v>
       </c>
       <c r="C9">
-        <v>1.2010000000000001</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F9">
-        <v>-54.3</v>
+        <v>-54.5</v>
       </c>
       <c r="G9">
-        <v>1.236</v>
+        <v>1.244</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>-2.1</v>
       </c>
       <c r="C10">
-        <v>1.2090000000000001</v>
+        <v>1.2130000000000001</v>
       </c>
       <c r="E10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10">
-        <v>-54.5</v>
+        <v>-54.2</v>
       </c>
       <c r="G10">
-        <v>1.244</v>
+        <v>1.254</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11">
-        <v>-2.1</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="C11">
-        <v>1.2130000000000001</v>
+        <v>1.222</v>
       </c>
       <c r="E11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11">
-        <v>-54.2</v>
+        <v>-54.1</v>
       </c>
       <c r="G11">
-        <v>1.254</v>
+        <v>1.2589999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>-2.2000000000000002</v>
       </c>
       <c r="C12">
-        <v>1.222</v>
+        <v>1.2310000000000001</v>
       </c>
       <c r="E12">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12">
-        <v>-54.1</v>
+        <v>-53.8</v>
       </c>
       <c r="G12">
-        <v>1.2589999999999999</v>
+        <v>1.2669999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13">
-        <v>-2.2000000000000002</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="C13">
-        <v>1.2310000000000001</v>
+        <v>1.238</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13">
-        <v>-53.8</v>
+        <v>-53.4</v>
       </c>
       <c r="G13">
-        <v>1.2669999999999999</v>
+        <v>1.2729999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B14">
         <v>-2.2999999999999998</v>
       </c>
       <c r="C14">
-        <v>1.238</v>
+        <v>1.242</v>
       </c>
       <c r="E14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F14">
-        <v>-53.4</v>
+        <v>-53.1</v>
       </c>
       <c r="G14">
-        <v>1.2729999999999999</v>
+        <v>1.2769999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B15">
-        <v>-2.2999999999999998</v>
+        <v>-2.4</v>
       </c>
       <c r="C15">
-        <v>1.242</v>
+        <v>1.25</v>
       </c>
       <c r="E15">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F15">
-        <v>-53.1</v>
+        <v>-52.7</v>
       </c>
       <c r="G15">
-        <v>1.2769999999999999</v>
+        <v>1.2809999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16">
-        <v>-2.4</v>
+        <v>-2.9</v>
       </c>
       <c r="C16">
-        <v>1.25</v>
+        <v>1.266</v>
       </c>
       <c r="E16">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F16">
-        <v>-52.7</v>
+        <v>-52.2</v>
       </c>
       <c r="G16">
-        <v>1.2809999999999999</v>
+        <v>1.2829999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <v>-2.9</v>
       </c>
       <c r="C17">
-        <v>1.266</v>
+        <v>1.2689999999999999</v>
       </c>
       <c r="E17">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F17">
-        <v>-52.2</v>
+        <v>-51.2</v>
       </c>
       <c r="G17">
-        <v>1.2829999999999999</v>
+        <v>1.284</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>-2.9</v>
       </c>
       <c r="C18">
-        <v>1.2689999999999999</v>
+        <v>1.276</v>
       </c>
       <c r="E18">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F18">
-        <v>-51.2</v>
+        <v>-50.7</v>
       </c>
       <c r="G18">
-        <v>1.284</v>
+        <v>1.2829999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B19">
-        <v>-2.9</v>
+        <v>-2.6</v>
       </c>
       <c r="C19">
-        <v>1.276</v>
+        <v>1.28</v>
       </c>
       <c r="E19">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F19">
-        <v>-50.7</v>
+        <v>-50.2</v>
       </c>
       <c r="G19">
-        <v>1.2829999999999999</v>
+        <v>1.282</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="C20">
         <v>1.28</v>
       </c>
       <c r="E20">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F20">
-        <v>-50.2</v>
+        <v>-49.3</v>
       </c>
       <c r="G20">
-        <v>1.282</v>
+        <v>1.2769999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="C21">
-        <v>1.28</v>
+        <v>1.276</v>
       </c>
       <c r="E21">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F21">
-        <v>-49.3</v>
+        <v>-48.5</v>
       </c>
       <c r="G21">
-        <v>1.2769999999999999</v>
+        <v>1.2709999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B22">
         <v>-2.8</v>
       </c>
       <c r="C22">
-        <v>1.276</v>
+        <v>1.2709999999999999</v>
       </c>
       <c r="E22">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F22">
-        <v>-48.5</v>
+        <v>-47.1</v>
       </c>
       <c r="G22">
-        <v>1.2709999999999999</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B23">
         <v>-2.8</v>
       </c>
       <c r="C23">
-        <v>1.2709999999999999</v>
+        <v>1.2689999999999999</v>
       </c>
       <c r="E23">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F23">
-        <v>-47.1</v>
+        <v>-45.5</v>
       </c>
       <c r="G23">
-        <v>1.26</v>
+        <v>1.2490000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B24">
         <v>-2.8</v>
       </c>
       <c r="C24">
-        <v>1.2689999999999999</v>
+        <v>1.2649999999999999</v>
       </c>
       <c r="E24">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F24">
-        <v>-45.5</v>
+        <v>-44.4</v>
       </c>
       <c r="G24">
-        <v>1.2490000000000001</v>
+        <v>1.236</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>-2.8</v>
       </c>
       <c r="C25">
-        <v>1.2649999999999999</v>
+        <v>1.2609999999999999</v>
       </c>
       <c r="E25">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F25">
-        <v>-44.4</v>
+        <v>-43</v>
       </c>
       <c r="G25">
-        <v>1.236</v>
+        <v>1.218</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B26">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="C26">
-        <v>1.2609999999999999</v>
+        <v>1.258</v>
       </c>
       <c r="E26">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F26">
-        <v>-43</v>
+        <v>-41.6</v>
       </c>
       <c r="G26">
-        <v>1.218</v>
+        <v>1.204</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B27">
         <v>-2.7</v>
       </c>
       <c r="C27">
-        <v>1.258</v>
+        <v>1.2509999999999999</v>
       </c>
       <c r="E27">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F27">
-        <v>-41.6</v>
+        <v>-39.9</v>
       </c>
       <c r="G27">
-        <v>1.204</v>
+        <v>1.179</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B28">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="C28">
-        <v>1.2509999999999999</v>
+        <v>1.238</v>
       </c>
       <c r="E28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F28">
-        <v>-39.9</v>
+        <v>-38.299999999999997</v>
       </c>
       <c r="G28">
-        <v>1.179</v>
+        <v>1.1579999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B29">
         <v>-2.8</v>
       </c>
       <c r="C29">
-        <v>1.238</v>
+        <v>1.228</v>
       </c>
       <c r="E29">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F29">
-        <v>-38.299999999999997</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="G29">
-        <v>1.1579999999999999</v>
+        <v>1.133</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B30">
         <v>-2.8</v>
       </c>
       <c r="C30">
-        <v>1.228</v>
+        <v>1.2170000000000001</v>
       </c>
       <c r="E30">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F30">
-        <v>-36.799999999999997</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="G30">
-        <v>1.133</v>
+        <v>1.101</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B31">
         <v>-2.8</v>
       </c>
       <c r="C31">
-        <v>1.2170000000000001</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="E31">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F31">
-        <v>-35.200000000000003</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="G31">
-        <v>1.101</v>
+        <v>1.073</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="C32">
-        <v>1.2050000000000001</v>
+        <v>1.165</v>
       </c>
       <c r="E32">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F32">
-        <v>-33.299999999999997</v>
+        <v>-31.8</v>
       </c>
       <c r="G32">
-        <v>1.073</v>
+        <v>1.044</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B33">
         <v>-2.9</v>
       </c>
       <c r="C33">
-        <v>1.165</v>
+        <v>1.157</v>
       </c>
       <c r="E33">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F33">
-        <v>-31.8</v>
+        <v>-30.6</v>
       </c>
       <c r="G33">
-        <v>1.044</v>
+        <v>1.022</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B34">
         <v>-2.9</v>
       </c>
       <c r="C34">
-        <v>1.157</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="E34">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F34">
-        <v>-30.6</v>
+        <v>-29.1</v>
       </c>
       <c r="G34">
-        <v>1.022</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B35">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="C35">
-        <v>1.1419999999999999</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="E35">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F35">
-        <v>-29.1</v>
+        <v>-27.3</v>
       </c>
       <c r="G35">
-        <v>0.99</v>
+        <v>0.95599999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B36">
         <v>-3</v>
       </c>
       <c r="C36">
-        <v>1.1339999999999999</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="E36">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F36">
-        <v>-27.3</v>
+        <v>-26.7</v>
       </c>
       <c r="G36">
-        <v>0.95599999999999996</v>
+        <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B37">
         <v>-3</v>
       </c>
       <c r="C37">
-        <v>1.1180000000000001</v>
+        <v>1.085</v>
       </c>
       <c r="E37">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>-26.7</v>
+        <v>-24.7</v>
       </c>
       <c r="G37">
-        <v>0.93600000000000005</v>
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B38">
         <v>-3</v>
       </c>
       <c r="C38">
-        <v>1.085</v>
+        <v>1.06</v>
       </c>
       <c r="E38">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F38">
-        <v>-24.7</v>
+        <v>-23.3</v>
       </c>
       <c r="G38">
-        <v>0.90400000000000003</v>
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B39">
         <v>-3</v>
       </c>
       <c r="C39">
-        <v>1.06</v>
+        <v>1.034</v>
       </c>
       <c r="E39">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F39">
-        <v>-23.3</v>
+        <v>-22.1</v>
       </c>
       <c r="G39">
-        <v>0.85699999999999998</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B40">
         <v>-3</v>
       </c>
       <c r="C40">
-        <v>1.034</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="E40">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F40">
-        <v>-22.1</v>
+        <v>-21.1</v>
       </c>
       <c r="G40">
-        <v>0.83</v>
+        <v>0.80300000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B41">
         <v>-3</v>
       </c>
       <c r="C41">
-        <v>1.0249999999999999</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="E41">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F41">
-        <v>-21.1</v>
+        <v>-19.8</v>
       </c>
       <c r="G41">
-        <v>0.80300000000000005</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B42">
         <v>-3</v>
@@ -1184,38 +1190,38 @@
         <v>0.97399999999999998</v>
       </c>
       <c r="E42">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F42">
-        <v>-19.8</v>
+        <v>-18.7</v>
       </c>
       <c r="G42">
-        <v>0.76500000000000001</v>
+        <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B43">
-        <v>-3</v>
+        <v>-3.1</v>
       </c>
       <c r="C43">
-        <v>0.97399999999999998</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="E43">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F43">
-        <v>-18.7</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="G43">
-        <v>0.73299999999999998</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>-3.1</v>
@@ -1224,172 +1230,152 @@
         <v>0.95699999999999996</v>
       </c>
       <c r="E44">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F44">
-        <v>-17.100000000000001</v>
+        <v>-16.8</v>
       </c>
       <c r="G44">
-        <v>0.70599999999999996</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B45">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="C45">
-        <v>0.95699999999999996</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="E45">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F45">
-        <v>-16.8</v>
+        <v>-15.8</v>
       </c>
       <c r="G45">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B46">
         <v>-3</v>
       </c>
       <c r="C46">
-        <v>0.92300000000000004</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="E46">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F46">
-        <v>-15.8</v>
+        <v>-15.1</v>
       </c>
       <c r="G46">
-        <v>0.65</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B47">
         <v>-3</v>
       </c>
       <c r="C47">
-        <v>0.90600000000000003</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="E47">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F47">
-        <v>-15.1</v>
+        <v>-14.3</v>
       </c>
       <c r="G47">
-        <v>0.621</v>
+        <v>0.58199999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B48">
         <v>-3</v>
       </c>
       <c r="C48">
-        <v>0.85899999999999999</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F48">
-        <v>-14.3</v>
+        <v>-13.8</v>
       </c>
       <c r="G48">
-        <v>0.502</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B49">
         <v>-3</v>
       </c>
       <c r="C49">
-        <v>0.84399999999999997</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="E49">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F49">
-        <v>-13.8</v>
+        <v>-13.1</v>
       </c>
       <c r="G49">
-        <v>0.57599999999999996</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B50">
         <v>-3</v>
       </c>
       <c r="C50">
-        <v>0.82899999999999996</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="E50">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F50">
-        <v>-13.1</v>
+        <v>-12.8</v>
       </c>
       <c r="G50">
-        <v>0.55300000000000005</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B51">
         <v>-3</v>
       </c>
       <c r="C51">
-        <v>0.80700000000000005</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="E51">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F51">
-        <v>-12.8</v>
+        <v>-12.5</v>
       </c>
       <c r="G51">
-        <v>0.53400000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>139</v>
-      </c>
-      <c r="B52">
-        <v>-3</v>
-      </c>
-      <c r="C52">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="E52">
-        <v>139</v>
-      </c>
-      <c r="F52">
-        <v>-12.5</v>
-      </c>
-      <c r="G52">
         <v>0.51600000000000001</v>
       </c>
     </row>

--- a/4. Efecto Hall/Code/Datos_Temp_n.xlsx
+++ b/4. Efecto Hall/Code/Datos_Temp_n.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\InterHall\Intermedio\4. Efecto Hall\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Documents\GitHub\Intermedio\4. Efecto Hall\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEC7668-3A0A-4D3A-9808-DBC6D823191D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E290179-7A26-4DF3-BC9B-915584269D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>T [°C]</t>
   </si>
@@ -34,6 +45,12 @@
   </si>
   <si>
     <t>V_L</t>
+  </si>
+  <si>
+    <t>Subida</t>
+  </si>
+  <si>
+    <t>Bajada</t>
   </si>
 </sst>
 </file>
@@ -86,6 +103,2375 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>a</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$J$2:$J$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-10.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-10.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-10.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-10.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-10.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-11.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-11.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-11.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-11.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-11.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-11.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-11.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-11.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-11.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-11.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-11.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-11.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-11.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-10.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58BD-44CF-8ABC-0099B69F28A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="863498607"/>
+        <c:axId val="863501007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="863498607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863501007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="863501007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863498607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>b</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$57:$I$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$J$57:$J$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-6.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-6.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-5.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-5.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-5.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-854E-4D1A-931D-5F2F784CD40F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="649153999"/>
+        <c:axId val="649158799"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="649153999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649158799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="649158799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649153999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{742723BC-6B06-F728-3602-563A39B9E66B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52554B80-8F9D-DFA9-5F14-95019D1B1032}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,15 +2737,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,8 +2764,17 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>41</v>
       </c>
@@ -398,8 +2793,14 @@
       <c r="G2">
         <v>1.1819999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>41</v>
+      </c>
+      <c r="J2">
+        <v>-9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>43</v>
       </c>
@@ -418,8 +2819,14 @@
       <c r="G3">
         <v>1.1919999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>43</v>
+      </c>
+      <c r="J3">
+        <v>-10.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>45</v>
       </c>
@@ -438,8 +2845,14 @@
       <c r="G4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>45</v>
+      </c>
+      <c r="J4">
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>47</v>
       </c>
@@ -458,8 +2871,14 @@
       <c r="G5">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>47</v>
+      </c>
+      <c r="J5">
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>49</v>
       </c>
@@ -478,8 +2897,14 @@
       <c r="G6">
         <v>1.2190000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>49</v>
+      </c>
+      <c r="J6">
+        <v>-10.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>51</v>
       </c>
@@ -498,8 +2923,14 @@
       <c r="G7">
         <v>1.2290000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>51</v>
+      </c>
+      <c r="J7">
+        <v>-10.199999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>53</v>
       </c>
@@ -518,8 +2949,14 @@
       <c r="G8">
         <v>1.236</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>53</v>
+      </c>
+      <c r="J8">
+        <v>-10.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>55</v>
       </c>
@@ -538,8 +2975,14 @@
       <c r="G9">
         <v>1.244</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>55</v>
+      </c>
+      <c r="J9">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>57</v>
       </c>
@@ -558,8 +3001,14 @@
       <c r="G10">
         <v>1.254</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>57</v>
+      </c>
+      <c r="J10">
+        <v>-10.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>59</v>
       </c>
@@ -578,8 +3027,14 @@
       <c r="G11">
         <v>1.2589999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>59</v>
+      </c>
+      <c r="J11">
+        <v>-9.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>61</v>
       </c>
@@ -598,8 +3053,14 @@
       <c r="G12">
         <v>1.2669999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>61</v>
+      </c>
+      <c r="J12">
+        <v>-10.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>63</v>
       </c>
@@ -618,8 +3079,14 @@
       <c r="G13">
         <v>1.2729999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>63</v>
+      </c>
+      <c r="J13">
+        <v>-10.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>65</v>
       </c>
@@ -638,8 +3105,14 @@
       <c r="G14">
         <v>1.2769999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>65</v>
+      </c>
+      <c r="J14">
+        <v>-10.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>67</v>
       </c>
@@ -658,8 +3131,14 @@
       <c r="G15">
         <v>1.2809999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>67</v>
+      </c>
+      <c r="J15">
+        <v>-10.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>69</v>
       </c>
@@ -678,8 +3157,14 @@
       <c r="G16">
         <v>1.2829999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>69</v>
+      </c>
+      <c r="J16">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>71</v>
       </c>
@@ -698,8 +3183,14 @@
       <c r="G17">
         <v>1.284</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>71</v>
+      </c>
+      <c r="J17">
+        <v>-10.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>73</v>
       </c>
@@ -718,8 +3209,14 @@
       <c r="G18">
         <v>1.2829999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>73</v>
+      </c>
+      <c r="J18">
+        <v>-11.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>75</v>
       </c>
@@ -738,8 +3235,14 @@
       <c r="G19">
         <v>1.282</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>75</v>
+      </c>
+      <c r="J19">
+        <v>-11.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>77</v>
       </c>
@@ -758,8 +3261,14 @@
       <c r="G20">
         <v>1.2769999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>77</v>
+      </c>
+      <c r="J20">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>79</v>
       </c>
@@ -778,8 +3287,14 @@
       <c r="G21">
         <v>1.2709999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>79</v>
+      </c>
+      <c r="J21">
+        <v>-11.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>81</v>
       </c>
@@ -798,8 +3313,14 @@
       <c r="G22">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>81</v>
+      </c>
+      <c r="J22">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>83</v>
       </c>
@@ -818,8 +3339,14 @@
       <c r="G23">
         <v>1.2490000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>83</v>
+      </c>
+      <c r="J23">
+        <v>-11.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>85</v>
       </c>
@@ -838,8 +3365,14 @@
       <c r="G24">
         <v>1.236</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>85</v>
+      </c>
+      <c r="J24">
+        <v>-10.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>87</v>
       </c>
@@ -858,8 +3391,14 @@
       <c r="G25">
         <v>1.218</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>87</v>
+      </c>
+      <c r="J25">
+        <v>-10.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>89</v>
       </c>
@@ -878,8 +3417,14 @@
       <c r="G26">
         <v>1.204</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>89</v>
+      </c>
+      <c r="J26">
+        <v>-10.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>91</v>
       </c>
@@ -898,8 +3443,14 @@
       <c r="G27">
         <v>1.179</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>91</v>
+      </c>
+      <c r="J27">
+        <v>-10.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>93</v>
       </c>
@@ -918,8 +3469,14 @@
       <c r="G28">
         <v>1.1579999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>93</v>
+      </c>
+      <c r="J28">
+        <v>-10.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>95</v>
       </c>
@@ -938,8 +3495,14 @@
       <c r="G29">
         <v>1.133</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>95</v>
+      </c>
+      <c r="J29">
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>97</v>
       </c>
@@ -958,8 +3521,14 @@
       <c r="G30">
         <v>1.101</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>97</v>
+      </c>
+      <c r="J30">
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>99</v>
       </c>
@@ -978,8 +3547,14 @@
       <c r="G31">
         <v>1.073</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>99</v>
+      </c>
+      <c r="J31">
+        <v>-10.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>101</v>
       </c>
@@ -998,8 +3573,14 @@
       <c r="G32">
         <v>1.044</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>101</v>
+      </c>
+      <c r="J32">
+        <v>-11.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>103</v>
       </c>
@@ -1018,8 +3599,14 @@
       <c r="G33">
         <v>1.022</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>103</v>
+      </c>
+      <c r="J33">
+        <v>-11.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>105</v>
       </c>
@@ -1038,8 +3625,14 @@
       <c r="G34">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>105</v>
+      </c>
+      <c r="J34">
+        <v>-11.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>107</v>
       </c>
@@ -1058,8 +3651,14 @@
       <c r="G35">
         <v>0.95599999999999996</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>107</v>
+      </c>
+      <c r="J35">
+        <v>-11.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>109</v>
       </c>
@@ -1078,8 +3677,14 @@
       <c r="G36">
         <v>0.93600000000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>109</v>
+      </c>
+      <c r="J36">
+        <v>-11.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>111</v>
       </c>
@@ -1098,8 +3703,14 @@
       <c r="G37">
         <v>0.90400000000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>111</v>
+      </c>
+      <c r="J37">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>113</v>
       </c>
@@ -1118,8 +3729,14 @@
       <c r="G38">
         <v>0.85699999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>113</v>
+      </c>
+      <c r="J38">
+        <v>-11.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>115</v>
       </c>
@@ -1138,8 +3755,14 @@
       <c r="G39">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>115</v>
+      </c>
+      <c r="J39">
+        <v>-11.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>117</v>
       </c>
@@ -1158,8 +3781,14 @@
       <c r="G40">
         <v>0.80300000000000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>117</v>
+      </c>
+      <c r="J40">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>119</v>
       </c>
@@ -1178,8 +3807,14 @@
       <c r="G41">
         <v>0.76500000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>119</v>
+      </c>
+      <c r="J41">
+        <v>-11.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>121</v>
       </c>
@@ -1198,8 +3833,14 @@
       <c r="G42">
         <v>0.73299999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>121</v>
+      </c>
+      <c r="J42">
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>123</v>
       </c>
@@ -1218,8 +3859,14 @@
       <c r="G43">
         <v>0.70599999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>123</v>
+      </c>
+      <c r="J43">
+        <v>-9.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>125</v>
       </c>
@@ -1238,8 +3885,14 @@
       <c r="G44">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>125</v>
+      </c>
+      <c r="J44">
+        <v>-8.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>127</v>
       </c>
@@ -1258,8 +3911,14 @@
       <c r="G45">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>127</v>
+      </c>
+      <c r="J45">
+        <v>-8.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>129</v>
       </c>
@@ -1278,8 +3937,14 @@
       <c r="G46">
         <v>0.621</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>129</v>
+      </c>
+      <c r="J46">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>131</v>
       </c>
@@ -1298,8 +3963,14 @@
       <c r="G47">
         <v>0.58199999999999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>131</v>
+      </c>
+      <c r="J47">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>133</v>
       </c>
@@ -1318,8 +3989,14 @@
       <c r="G48">
         <v>0.57599999999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>133</v>
+      </c>
+      <c r="J48">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>135</v>
       </c>
@@ -1338,8 +4015,14 @@
       <c r="G49">
         <v>0.55300000000000005</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>135</v>
+      </c>
+      <c r="J49">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>137</v>
       </c>
@@ -1358,8 +4041,14 @@
       <c r="G50">
         <v>0.53400000000000003</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>137</v>
+      </c>
+      <c r="J50">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>139</v>
       </c>
@@ -1378,8 +4067,426 @@
       <c r="G51">
         <v>0.51600000000000001</v>
       </c>
+      <c r="I51">
+        <v>139</v>
+      </c>
+      <c r="J51">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>41</v>
+      </c>
+      <c r="J57">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <v>43</v>
+      </c>
+      <c r="J58">
+        <v>-4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <v>45</v>
+      </c>
+      <c r="J59">
+        <v>-4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <v>47</v>
+      </c>
+      <c r="J60">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>49</v>
+      </c>
+      <c r="J61">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>51</v>
+      </c>
+      <c r="J62">
+        <v>-4.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>53</v>
+      </c>
+      <c r="J63">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>55</v>
+      </c>
+      <c r="J64">
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>57</v>
+      </c>
+      <c r="J65">
+        <v>-4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>59</v>
+      </c>
+      <c r="J66">
+        <v>-5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <v>61</v>
+      </c>
+      <c r="J67">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="68" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>63</v>
+      </c>
+      <c r="J68">
+        <v>-5.6</v>
+      </c>
+    </row>
+    <row r="69" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>65</v>
+      </c>
+      <c r="J69">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="70" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>67</v>
+      </c>
+      <c r="J70">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="71" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <v>69</v>
+      </c>
+      <c r="J71">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="72" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>71</v>
+      </c>
+      <c r="J72">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="73" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <v>73</v>
+      </c>
+      <c r="J73">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="74" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <v>75</v>
+      </c>
+      <c r="J74">
+        <v>-5.9</v>
+      </c>
+    </row>
+    <row r="75" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <v>77</v>
+      </c>
+      <c r="J75">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="76" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <v>79</v>
+      </c>
+      <c r="J76">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="77" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <v>81</v>
+      </c>
+      <c r="J77">
+        <v>-5.7</v>
+      </c>
+    </row>
+    <row r="78" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>83</v>
+      </c>
+      <c r="J78">
+        <v>-5.6</v>
+      </c>
+    </row>
+    <row r="79" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <v>85</v>
+      </c>
+      <c r="J79">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="80" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <v>87</v>
+      </c>
+      <c r="J80">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="81" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <v>89</v>
+      </c>
+      <c r="J81">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="82" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <v>91</v>
+      </c>
+      <c r="J82">
+        <v>-5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <v>93</v>
+      </c>
+      <c r="J83">
+        <v>-4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <v>95</v>
+      </c>
+      <c r="J84">
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="85" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <v>97</v>
+      </c>
+      <c r="J85">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="86" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <v>99</v>
+      </c>
+      <c r="J86">
+        <v>-4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <v>101</v>
+      </c>
+      <c r="J87">
+        <v>-4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <v>103</v>
+      </c>
+      <c r="J88">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="89" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <v>105</v>
+      </c>
+      <c r="J89">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="90" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <v>107</v>
+      </c>
+      <c r="J90">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="91" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <v>109</v>
+      </c>
+      <c r="J91">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="92" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <v>111</v>
+      </c>
+      <c r="J92">
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="93" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <v>113</v>
+      </c>
+      <c r="J93">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="94" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <v>115</v>
+      </c>
+      <c r="J94">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="95" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <v>117</v>
+      </c>
+      <c r="J95">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="96" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <v>119</v>
+      </c>
+      <c r="J96">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <v>121</v>
+      </c>
+      <c r="J97">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="98" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <v>123</v>
+      </c>
+      <c r="J98">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <v>125</v>
+      </c>
+      <c r="J99">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="100" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <v>127</v>
+      </c>
+      <c r="J100">
+        <v>-6.1</v>
+      </c>
+    </row>
+    <row r="101" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <v>129</v>
+      </c>
+      <c r="J101">
+        <v>-5.9</v>
+      </c>
+    </row>
+    <row r="102" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <v>131</v>
+      </c>
+      <c r="J102">
+        <v>-5.7</v>
+      </c>
+    </row>
+    <row r="103" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <v>133</v>
+      </c>
+      <c r="J103">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="104" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <v>135</v>
+      </c>
+      <c r="J104">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="105" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <v>137</v>
+      </c>
+      <c r="J105">
+        <v>-5.3</v>
+      </c>
+    </row>
+    <row r="106" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <v>139</v>
+      </c>
+      <c r="J106">
+        <v>-5.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>